--- a/biology/Botanique/Volve/Volve.xlsx
+++ b/biology/Botanique/Volve/Volve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La volve est le nom donné au reste du voile universel plus ou moins membraneux qui se trouve au pied de certains champignons comme les amanites ou les volvaires.
 L'Amanite des Césars ou l'amanite phalloïde, l'amanite ovoïde possèdent des volves en sac épaisses.
